--- a/docs/TeamworkContribution.xlsx
+++ b/docs/TeamworkContribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RMIT\Teaching\EEET2582\Assignments\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huutrungle2001/Documents/OnGoing/EEET2582-DevVision/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92CC5E4-4C10-4814-B326-67E9BC8AFA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F986FF0-5034-AD41-A118-7025C42CC7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Assigned Tasks</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Design UX/UI for Level X Requirement RXY</t>
-  </si>
-  <si>
-    <t>Name: Full Name Member 1</t>
   </si>
   <si>
     <t>Name: Full Name Member 2</t>
@@ -148,13 +145,112 @@
   </si>
   <si>
     <t>SQUAD [ID] - GROUP [A OR B]</t>
+  </si>
+  <si>
+    <t>Name: Nguyen Phan Nam</t>
+  </si>
+  <si>
+    <t>Design ERD for all entities</t>
+  </si>
+  <si>
+    <t>Review and refine ERD</t>
+  </si>
+  <si>
+    <t>Design microservices architecture</t>
+  </si>
+  <si>
+    <t>Setup Docker containerization</t>
+  </si>
+  <si>
+    <t>Configure Nginx API Gateway</t>
+  </si>
+  <si>
+    <t>Implement auth-service (Authentication)</t>
+  </si>
+  <si>
+    <t>Implement company-service (Company Profiles)</t>
+  </si>
+  <si>
+    <t>Implement job-service (Job Postings)</t>
+  </si>
+  <si>
+    <t>Implement search-service (Applicant Search)</t>
+  </si>
+  <si>
+    <t>Create database seeding scripts</t>
+  </si>
+  <si>
+    <t>Setup MongoDB Atlas integration</t>
+  </si>
+  <si>
+    <t>Setup Redis caching</t>
+  </si>
+  <si>
+    <t>Setup React + Vite + TypeScript project</t>
+  </si>
+  <si>
+    <t>Configure TailwindCSS styling</t>
+  </si>
+  <si>
+    <t>Implement authentication pages (Login/Register)</t>
+  </si>
+  <si>
+    <t>Implement company profile management</t>
+  </si>
+  <si>
+    <t>Implement job posting CRUD</t>
+  </si>
+  <si>
+    <t>Implement applicant search interface</t>
+  </si>
+  <si>
+    <t>Implement application tracking</t>
+  </si>
+  <si>
+    <t>Design home page with navigation</t>
+  </si>
+  <si>
+    <t>Design authentication flows</t>
+  </si>
+  <si>
+    <t>Design dashboard and job management interface</t>
+  </si>
+  <si>
+    <t>Testing &amp; QA</t>
+  </si>
+  <si>
+    <t>Manual testing of all features</t>
+  </si>
+  <si>
+    <t>Integration testing</t>
+  </si>
+  <si>
+    <t>Create project README</t>
+  </si>
+  <si>
+    <t>Document API endpoints</t>
+  </si>
+  <si>
+    <t>Create seed database documentation</t>
+  </si>
+  <si>
+    <t>Write project report</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Setup production environment</t>
+  </si>
+  <si>
+    <t>Deploy to cloud platform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +321,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -418,11 +526,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -440,7 +579,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -454,12 +592,19 @@
     <xf numFmtId="14" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -478,17 +623,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,20 +949,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="3" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
     <col min="5" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
     <col min="8" max="9" width="20.6640625" customWidth="1"/>
     <col min="10" max="10" width="34.33203125" customWidth="1"/>
     <col min="11" max="12" width="20.6640625" customWidth="1"/>
@@ -824,106 +970,106 @@
     <col min="14" max="18" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-    </row>
-    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+    </row>
+    <row r="2" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="41"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="34"/>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="2"/>
       <c r="M3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="2"/>
       <c r="P3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="11"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="40" t="s">
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+    </row>
+    <row r="4" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -968,814 +1114,1051 @@
       <c r="R4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-    </row>
-    <row r="5" spans="1:23" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="C5" s="43" t="s">
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="C5" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+    </row>
+    <row r="9" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:23" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+    </row>
+    <row r="15" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="37"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+    </row>
+    <row r="18" spans="1:18" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="C18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-    </row>
-    <row r="9" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-    </row>
-    <row r="10" spans="1:23" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-    </row>
-    <row r="11" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-    </row>
-    <row r="13" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-    </row>
-    <row r="14" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-    </row>
-    <row r="15" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="35"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-    </row>
-    <row r="16" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+    </row>
+    <row r="19" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-    </row>
-    <row r="17" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-    </row>
-    <row r="18" spans="1:18" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="C18" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-    </row>
-    <row r="19" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="C19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+    </row>
+    <row r="20" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+    </row>
+    <row r="21" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+    </row>
+    <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+    </row>
+    <row r="23" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+    </row>
+    <row r="26" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+    </row>
+    <row r="27" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-    </row>
-    <row r="24" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-    </row>
-    <row r="25" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="35" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+    </row>
+    <row r="28" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+    </row>
+    <row r="29" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+    </row>
+    <row r="30" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+    </row>
+    <row r="31" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+    </row>
+    <row r="32" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="C32" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-    </row>
-    <row r="26" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-    </row>
-    <row r="27" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-    </row>
-    <row r="28" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-    </row>
-    <row r="29" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-    </row>
-    <row r="30" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-    </row>
-    <row r="31" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-    </row>
-    <row r="32" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="C32" s="33" t="s">
+      <c r="D32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+    </row>
+    <row r="33" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="17"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+    </row>
+    <row r="34" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="36"/>
+      <c r="D34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+    </row>
+    <row r="35" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="36"/>
+      <c r="D35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+    </row>
+    <row r="36" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="36"/>
+      <c r="D36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+    </row>
+    <row r="37" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="36"/>
+      <c r="D37" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+    </row>
+    <row r="38" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="36"/>
+      <c r="D38" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+    </row>
+    <row r="39" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+    </row>
+    <row r="40" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="37"/>
+      <c r="D40" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+    </row>
+    <row r="41" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="37"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+    </row>
+    <row r="42" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="37"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+    </row>
+    <row r="43" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="17"/>
+      <c r="C43" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+    </row>
+    <row r="44" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="43"/>
+      <c r="D44" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+    </row>
+    <row r="45" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="43"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+    </row>
+    <row r="46" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="43"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+    </row>
+    <row r="47" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="43"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+    </row>
+    <row r="48" spans="2:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="44"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+    </row>
+    <row r="49" spans="3:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-    </row>
-    <row r="33" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-    </row>
-    <row r="34" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="34"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-    </row>
-    <row r="35" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="34"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-    </row>
-    <row r="36" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="34"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-    </row>
-    <row r="37" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="34"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-    </row>
-    <row r="38" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="34"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-    </row>
-    <row r="39" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-    </row>
-    <row r="40" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="35"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-    </row>
-    <row r="41" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="35"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-    </row>
-    <row r="42" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="35"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C43" s="29"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C44" s="29"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="29"/>
+      <c r="D49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+    </row>
+    <row r="50" spans="3:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="37"/>
+      <c r="D50" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+    </row>
+    <row r="51" spans="3:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="37"/>
+      <c r="D51" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+    </row>
+    <row r="52" spans="3:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="37"/>
+      <c r="D52" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="C18:R18"/>
+  <mergeCells count="13">
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C43:C48"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="C39:C42"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C17"/>
     <mergeCell ref="C19:C24"/>
     <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="C18:R18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
   </headerFooter>
@@ -1783,26 +2166,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e065b43d-480a-497e-a0a3-8b717bdbddb6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d8491ec-a223-4e1a-b9f8-4301ad3fa401">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D484537D544E74DBFC6ED3773484AF1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ebde5870855b0d19b2e9045c3aca31e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d8491ec-a223-4e1a-b9f8-4301ad3fa401" xmlns:ns3="e065b43d-480a-497e-a0a3-8b717bdbddb6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfefacd70f5c2c7a6cd9030bf572fe64" ns2:_="" ns3:_="">
     <xsd:import namespace="4d8491ec-a223-4e1a-b9f8-4301ad3fa401"/>
@@ -2003,26 +2366,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6E48EA3-5F95-4155-B159-8B7D5C46394D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e065b43d-480a-497e-a0a3-8b717bdbddb6"/>
-    <ds:schemaRef ds:uri="4d8491ec-a223-4e1a-b9f8-4301ad3fa401"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2221EA4-B9E4-4450-9C56-4EAB46EECBDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e065b43d-480a-497e-a0a3-8b717bdbddb6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d8491ec-a223-4e1a-b9f8-4301ad3fa401">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BCA7BF8-5D42-48CB-A124-4372C375E670}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2039,4 +2403,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2221EA4-B9E4-4450-9C56-4EAB46EECBDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6E48EA3-5F95-4155-B159-8B7D5C46394D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e065b43d-480a-497e-a0a3-8b717bdbddb6"/>
+    <ds:schemaRef ds:uri="4d8491ec-a223-4e1a-b9f8-4301ad3fa401"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/TeamworkContribution.xlsx
+++ b/docs/TeamworkContribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huutrungle2001/Documents/OnGoing/EEET2582-DevVision/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F986FF0-5034-AD41-A118-7025C42CC7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4050DA73-1905-8F4B-98BF-A07B43F1F95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
